--- a/tests/files-read/exceldata.xlsx
+++ b/tests/files-read/exceldata.xlsx
@@ -1,61 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{859AB26F-8396-4F3A-95DE-51F7170E840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
-    <sheet name="regression" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="regression" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>user name</t>
+    <t>New val</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Add data</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>user</t>
+    <t>path parameterised</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,7 +65,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -413,32 +393,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="14" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
